--- a/周报/2018_10_18周报.xlsx
+++ b/周报/2018_10_18周报.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1310E111-5197-4326-B5E5-9C22411B8BB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FF4EE-1542-4FC7-80C0-B1C8C79B6C81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>第7周</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成情况：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   <si>
     <t>1.和负责测试的同学沟通交流，明确任务
 2.在已设计好的原型基础上，设计完善整个网站的静态原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,54 +205,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,6 +224,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,7 +602,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -611,94 +611,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="67.849999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="25.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="67.849999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="55.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="25.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="55.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -708,16 +708,16 @@
     <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/周报/2018_10_18周报.xlsx
+++ b/周报/2018_10_18周报.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49FF4EE-1542-4FC7-80C0-B1C8C79B6C81}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC212C67-391E-48A0-8398-F2DD28ED4795}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -183,15 +183,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -205,8 +196,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -234,33 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,122 +593,123 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="20.61328125" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="55.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:6" ht="36.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="67.849999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="25.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="55.3" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="55.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
